--- a/Excel Practies.xlsx
+++ b/Excel Practies.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\OneDrive\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333BA0E-6602-46AF-888C-1FDA76C176ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D4661-896C-49B1-8876-E4374CD628CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{353E67F9-4C88-4B8E-BCA6-DC724BFFB0FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Marge centre" sheetId="1" r:id="rId1"/>
     <sheet name="Relative Refrence" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Student Report Card</t>
   </si>
@@ -112,7 +113,46 @@
     <t>Mixed Reference</t>
   </si>
   <si>
-    <t>AS</t>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>kabir</t>
+  </si>
+  <si>
+    <t>neha</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>sub mm</t>
+  </si>
+  <si>
+    <t>english%</t>
+  </si>
+  <si>
+    <t>Science%</t>
+  </si>
+  <si>
+    <t>Maths%</t>
+  </si>
+  <si>
+    <t>class total</t>
+  </si>
+  <si>
+    <t>% total</t>
+  </si>
+  <si>
+    <t>maths total</t>
+  </si>
+  <si>
+    <t>english total</t>
+  </si>
+  <si>
+    <t>science total</t>
   </si>
 </sst>
 </file>
@@ -318,10 +358,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,7 +660,7 @@
   <dimension ref="B3:H17"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B8" sqref="B8:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -886,23 +922,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157EAEFC-3CA0-4DD0-9BA8-4CB84302003B}">
-  <dimension ref="B1:J23"/>
+  <dimension ref="D1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="91" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>19</v>
       </c>
@@ -913,7 +960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -939,7 +986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>17</v>
       </c>
@@ -957,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>18</v>
       </c>
@@ -975,20 +1022,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -999,7 +1041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>16</v>
       </c>
@@ -1025,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>17</v>
       </c>
@@ -1043,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>18</v>
       </c>
@@ -1061,15 +1103,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1122,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>16</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>18</v>
       </c>
@@ -1140,6 +1182,352 @@
       <c r="H23">
         <f>SUM(E$21:G23)</f>
         <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D27" t="str">
+        <f>PROPER("aman")</f>
+        <v>Aman</v>
+      </c>
+      <c r="E27">
+        <v>92</v>
+      </c>
+      <c r="F27">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <f>SUM(E27:G27)</f>
+        <v>164</v>
+      </c>
+      <c r="I27">
+        <f>H27/$I$37*100</f>
+        <v>41</v>
+      </c>
+      <c r="J27">
+        <f>E27/$H27*100</f>
+        <v>56.09756097560976</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:L27" si="3">F27/$H27*100</f>
+        <v>29.268292682926827</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>14.634146341463413</v>
+      </c>
+      <c r="M27">
+        <f>SUM(J27:L27)</f>
+        <v>100</v>
+      </c>
+      <c r="N27">
+        <f>E27/E$32*100</f>
+        <v>31.292517006802722</v>
+      </c>
+      <c r="O27">
+        <f>F27/F$32*100</f>
+        <v>13.994169096209912</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="O27:P31" si="4">G27/G$32*100</f>
+        <v>8.9887640449438209</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>47</v>
+      </c>
+      <c r="F28">
+        <v>87</v>
+      </c>
+      <c r="G28">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H31" si="5">SUM(E28:G28)</f>
+        <v>187</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I31" si="6">H28/$I$37*100</f>
+        <v>46.75</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J31" si="7">E28/$H28*100</f>
+        <v>25.133689839572192</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K31" si="8">F28/$H28*100</f>
+        <v>46.524064171122994</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L31" si="9">G28/$H28*100</f>
+        <v>28.342245989304814</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M31" si="10">SUM(J28:L28)</f>
+        <v>100</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N31" si="11">E28/E$32*100</f>
+        <v>15.986394557823131</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>25.364431486880466</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>19.850187265917604</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>67</v>
+      </c>
+      <c r="G29">
+        <v>97</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>239</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>59.75</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>31.380753138075313</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>28.03347280334728</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>40.585774058577407</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>25.510204081632654</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>19.533527696793001</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>36.329588014981276</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>38.75</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>29.032258064516132</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>49.032258064516128</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>21.935483870967744</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>15.306122448979592</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>22.157434402332363</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>12.734082397003746</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>59</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>39.75</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>22.012578616352201</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>40.880503144654092</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>37.106918238993707</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>11.904761904761903</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>18.950437317784257</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>22.09737827715356</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E27:E31)</f>
+        <v>294</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:G32" si="12">SUM(F27:F31)</f>
+        <v>343</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="12"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1150,4 +1538,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F144531-9A3E-4EEF-92DF-3BCC6A415F18}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>